--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Question</t>
   </si>
@@ -127,9 +127,6 @@
     <t>When you divide 22 by 7, you get approximately 3.14. However, the exact result is a repeating decimal:
 22 ÷ 7 = 3.142857142857...
 The repeating part of the decimal, "142857," continues indefinitely. If you only need an approximation, 3.14 is a commonly used value.</t>
-  </si>
-  <si>
-    <t>3142857.0</t>
   </si>
   <si>
     <t>If a train travels 150 kilometers in 3 hours, what is its average speed?</t>
@@ -151,7 +148,7 @@
     <t>The programming language known as the language of the web is JavaScript. JavaScript is widely used to create interactive and dynamic content on websites. It allows developers to add functionality to web pages, such as form validation, animations, and user interactions. Alongside HTML (HyperText Markup Language) for structuring content and CSS (Cascading Style Sheets) for styling, JavaScript is a core technology for web development. It is supported by all major web browsers and is essential for both front-end and back-end web development.</t>
   </si>
   <si>
-    <t>JavaScript/HTML/CSS</t>
+    <t>HTML</t>
   </si>
   <si>
     <t>What is the boiling point of water at sea level?</t>
@@ -191,7 +188,7 @@
 Synonyms for meticulous include fastidious, painstaking, scrupulous, and conscientious.</t>
   </si>
   <si>
-    <t>attention/careful</t>
+    <t>attention careful</t>
   </si>
   <si>
     <t>Which country hosted the Summer Olympics in 2021?</t>
@@ -215,7 +212,7 @@
 Examples of popular web browsers include Google Chrome, Mozilla Firefox, Safari, Microsoft Edge, and Opera.</t>
   </si>
   <si>
-    <t>Rendering/Navigation/Interaction</t>
+    <t>Rendering Navigation Interaction</t>
   </si>
   <si>
     <t>What is the plural form of the word "cactus"?</t>
@@ -227,7 +224,7 @@
 You can use either form depending on your preference or the context in which you are writing.</t>
   </si>
   <si>
-    <t>Cacti/Cactuses</t>
+    <t>Cacti Cactus</t>
   </si>
   <si>
     <t>What part of the cell contains the genetic material?</t>
@@ -236,7 +233,7 @@
     <t>The part of the cell that contains the genetic material is called the nucleus. The nucleus is a membrane-bound organelle found in eukaryotic cells, which include plant and animal cells. It houses the chromosomes, which are made up of DNA and proteins. The DNA contains the genetic instructions that control the structure and function of the cell and the organism as a whole.</t>
   </si>
   <si>
-    <t>nucleus/DNA</t>
+    <t>nucleus</t>
   </si>
   <si>
     <t>what is the speed of light?</t>
@@ -245,7 +242,7 @@
     <t>The speed of light in a vacuum is exactly 299,792,458 meters per second (m/s). This value is not just an approximation; it is defined to be exactly this speed as part of the international system of units (SI). In other media, such as air, water, or glass, the speed of light is slower than in a vacuum. The speed of light is a fundamental constant in physics and is often denoted by the symbol c.</t>
   </si>
   <si>
-    <t>299,792,458</t>
+    <t>299.0</t>
   </si>
 </sst>
 </file>
@@ -298,7 +295,7 @@
   <cols>
     <col min="1" max="1" width="56.25390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.12890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.49609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.9140625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.41796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.0625" customWidth="true" bestFit="true"/>
@@ -476,7 +473,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -484,13 +481,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="C13" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>40</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -498,13 +495,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="C14" t="s" s="0">
         <v>42</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>43</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
@@ -512,13 +509,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="C15" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>46</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
@@ -526,13 +523,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="C16" t="s" s="0">
         <v>48</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>49</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
@@ -540,13 +537,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="C17" t="s" s="0">
         <v>51</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>52</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
@@ -554,13 +551,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="C18" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>55</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -568,13 +565,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="C19" t="s" s="0">
         <v>57</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>58</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
@@ -582,13 +579,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="C20" t="s" s="0">
         <v>60</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>61</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
@@ -596,13 +593,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="C21" t="s" s="0">
         <v>63</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>64</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -610,13 +607,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="C22" t="s" s="0">
         <v>66</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>67</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
@@ -624,13 +621,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="C23" t="s" s="0">
         <v>69</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
